--- a/test/NSB-P2 SSR as of July 21-27, 2025.xlsx
+++ b/test/NSB-P2 SSR as of July 21-27, 2025.xlsx
@@ -2,256 +2,165 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="As of July 21-27, 2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="DATE_RANGE">#REF!</definedName>
+    <definedName name="FIRST_DAY">#REF!</definedName>
+    <definedName name="FIRST_DAY_FALLBACK">#REF!</definedName>
+    <definedName name="FULL_DATE_FMT">#REF!</definedName>
+    <definedName name="LAST_SUN">#REF!</definedName>
+    <definedName name="MONTH_FMT">#REF!</definedName>
+    <definedName name="NO_MONTH_FMT">#REF!</definedName>
+    <definedName name="NO_YR_FMT">#REF!</definedName>
+    <definedName name="PADDING">#REF!</definedName>
+    <definedName name="PADDING_FALLBACK">#REF!</definedName>
+    <definedName name="PADDING_FORMAT">#REF!</definedName>
+    <definedName name="REF_ERRMSG">#REF!</definedName>
+    <definedName name="REF_FALLBACK">#REF!</definedName>
+    <definedName name="REF_INC">#REF!</definedName>
+    <definedName name="REF_NUM">#REF!</definedName>
+    <definedName name="REF_NUM_FULL">#REF!</definedName>
+    <definedName name="REF_PRETEXT">#REF!</definedName>
+    <definedName name="REF_RESOLVED">#REF!</definedName>
+    <definedName name="REF_TICKER">#REF!</definedName>
+    <definedName name="REF_TICKER_INC">#REF!</definedName>
+    <definedName name="TICKER_PADDING">#REF!</definedName>
+    <definedName name="TICKER_PADDING_FALLBACK">#REF!</definedName>
+    <definedName name="TICKER_PADDING_FORMAT">#REF!</definedName>
+    <definedName name="WEEK_CODE">#REF!</definedName>
     <definedName name="WEEK_END">#REF!</definedName>
+    <definedName name="WEEK_FULL_FMT">#REF!</definedName>
+    <definedName name="WEEK_NUM">#REF!</definedName>
     <definedName name="WEEK_START">#REF!</definedName>
-    <definedName name="WEEK_NUM">#REF!</definedName>
     <definedName name="YEAR_FMT">#REF!</definedName>
-    <definedName name="DATE_RANGE">#REF!</definedName>
-    <definedName name="REF_NUM">#REF!</definedName>
-    <definedName name="WEEK_FULL_FMT">#REF!</definedName>
-    <definedName name="REF_NUM_FULL">#REF!</definedName>
-    <definedName name="REF_FALLBACK">#REF!</definedName>
-    <definedName name="WEEK_CODE">#REF!</definedName>
-    <definedName name="NO_MONTH_FMT">#REF!</definedName>
-    <definedName name="REF_TICKER_INC">#REF!</definedName>
-    <definedName name="LAST_SUN">#REF!</definedName>
-    <definedName name="FULL_DATE_FMT">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FALLBACK">#REF!</definedName>
-    <definedName name="PADDING_FALLBACK">#REF!</definedName>
-    <definedName name="FIRST_DAY">#REF!</definedName>
-    <definedName name="REF_TICKER">#REF!</definedName>
-    <definedName name="REF_RESOLVED">#REF!</definedName>
-    <definedName name="PADDING">#REF!</definedName>
-    <definedName name="TICKER_PADDING">#REF!</definedName>
-    <definedName name="REF_ERRMSG">#REF!</definedName>
-    <definedName name="FIRST_DAY_FALLBACK">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FORMAT">#REF!</definedName>
-    <definedName name="MONTH_FMT">#REF!</definedName>
-    <definedName name="NO_YR_FMT">#REF!</definedName>
-    <definedName name="PADDING_FORMAT">#REF!</definedName>
-    <definedName name="REF_PRETEXT">#REF!</definedName>
-    <definedName name="REF_INC">#REF!</definedName>
     <definedName name="YEAR_SPACER">#REF!</definedName>
-    <definedName name="REF_NUM_FULL" localSheetId="0">#REF!</definedName>
+    <definedName name="CUR_YEAR" localSheetId="0">#REF!</definedName>
+    <definedName name="DATE_RANGE" localSheetId="0">#REF!</definedName>
+    <definedName name="DATE_RANGE_TABLE" localSheetId="0">#REF!</definedName>
+    <definedName name="DAY_FMT" localSheetId="0">#REF!</definedName>
+    <definedName name="END_YEAR" localSheetId="0">#REF!</definedName>
+    <definedName name="FIRST_DAY" localSheetId="0">#REF!</definedName>
+    <definedName name="FIRST_DAY_FALLBACK" localSheetId="0">#REF!</definedName>
+    <definedName name="FULL_DATE_FMT" localSheetId="0">#REF!</definedName>
+    <definedName name="LAST_SUN" localSheetId="0">#REF!</definedName>
     <definedName name="MONTH_FMT" localSheetId="0">#REF!</definedName>
     <definedName name="NO_MONTH_FMT" localSheetId="0">#REF!</definedName>
+    <definedName name="NO_YR_FMT" localSheetId="0">#REF!</definedName>
+    <definedName name="PADDING" localSheetId="0">#REF!</definedName>
+    <definedName name="PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
+    <definedName name="PADDING_FORMAT" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_ERRMSG" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_FALLBACK" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_INC" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_NUM_FULL" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_PRETEXT" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_RESOLVED" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_TICKER" localSheetId="0">#REF!</definedName>
+    <definedName name="REF_TICKER_INC" localSheetId="0">#REF!</definedName>
+    <definedName name="TICKER_PADDING" localSheetId="0">#REF!</definedName>
+    <definedName name="TICKER_PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
+    <definedName name="TICKER_PADDING_FORMAT" localSheetId="0">#REF!</definedName>
+    <definedName name="WEEK_CODE" localSheetId="0">#REF!</definedName>
+    <definedName name="WEEK_END" localSheetId="0">#REF!</definedName>
+    <definedName name="WEEK_FULL_FMT" localSheetId="0">#REF!</definedName>
+    <definedName name="WEEK_NUM" localSheetId="0">#REF!</definedName>
+    <definedName name="WEEK_START" localSheetId="0">#REF!</definedName>
+    <definedName name="YEAR_FMT" localSheetId="0">#REF!</definedName>
+    <definedName name="YEAR_SPACER" localSheetId="0">#REF!</definedName>
     <definedName name="YEARS" localSheetId="0">#REF!</definedName>
-    <definedName name="YEAR_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_START" localSheetId="0">#REF!</definedName>
-    <definedName name="YEAR_SPACER" localSheetId="0">#REF!</definedName>
-    <definedName name="FIRST_DAY_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="CUR_YEAR" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_RESOLVED" localSheetId="0">#REF!</definedName>
-    <definedName name="LAST_SUN" localSheetId="0">#REF!</definedName>
-    <definedName name="DAY_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_NUM" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_CODE" localSheetId="0">#REF!</definedName>
-    <definedName name="FIRST_DAY" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING_FORMAT" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_END" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_ERRMSG" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="NO_YR_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="DATE_RANGE_TABLE" localSheetId="0">#REF!</definedName>
-    <definedName name="FULL_DATE_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_FULL_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FORMAT" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_INC" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_TICKER" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_PRETEXT" localSheetId="0">#REF!</definedName>
-    <definedName name="END_YEAR" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_TICKER_INC" localSheetId="0">#REF!</definedName>
-    <definedName name="DATE_RANGE" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
-  </numFmts>
-  <fonts count="13">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="36"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="24"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color rgb="00002445"/>
       <sz val="20"/>
-    </font>
-    <font/>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <color rgb="FF262626"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
+      <b val="1"/>
       <i val="1"/>
-      <color rgb="0000386C"/>
+      <color rgb="00002445"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="0000386C"/>
-      <sz val="12"/>
+      <color rgb="00002445"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <color rgb="0000386C"/>
-      <sz val="11"/>
+      <color rgb="00002445"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="0000386C"/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color rgb="00002445"/>
+      <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093CBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2F1FF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="15">
-    <border/>
+  <borders count="4">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,6 +176,7 @@
         <color rgb="0000386C"/>
       </bottom>
     </border>
+    <border/>
     <border>
       <bottom style="thin">
         <color rgb="0000386C"/>
@@ -276,112 +186,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="1"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDB"/>
-          <bgColor rgb="FFF2DBDB"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -465,8 +309,8 @@
     <ext cx="3190875" cy="742950"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="0" name="image1.png"/>
-        <cNvPicPr preferRelativeResize="0"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
@@ -478,19 +322,18 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
     </pic>
-    <clientData fLocksWithSheet="0"/>
+    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -601,21 +444,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -632,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -680,6 +523,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -692,24 +537,24 @@
   </sheetPr>
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="1.13" customWidth="1" style="25" min="1" max="1"/>
-    <col width="8.880000000000001" customWidth="1" style="25" min="2" max="2"/>
-    <col width="8.5" customWidth="1" style="25" min="3" max="3"/>
-    <col width="15.75" customWidth="1" style="25" min="4" max="4"/>
-    <col width="11.13" customWidth="1" style="25" min="5" max="5"/>
-    <col width="13" customWidth="1" style="25" min="6" max="11"/>
-    <col width="5.88" customWidth="1" style="25" min="12" max="12"/>
-    <col width="2.75" customWidth="1" style="25" min="13" max="13"/>
-    <col width="1.13" customWidth="1" style="25" min="14" max="14"/>
+    <col width="1.140625" customWidth="1" min="1" max="1"/>
+    <col width="8.85546875" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" customWidth="1" min="3" max="3"/>
+    <col width="15.7109375" customWidth="1" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="11"/>
+    <col width="5.85546875" customWidth="1" min="12" max="12"/>
+    <col width="2.7109375" customWidth="1" min="13" max="13"/>
+    <col width="1.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.5" customHeight="1" s="25">
+    <row r="1" ht="60" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
@@ -725,971 +570,821 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="25">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="25">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="26" t="inlineStr">
+    <row r="3">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>SAFETY STATISTICS REPORT</t>
         </is>
       </c>
-      <c r="C3" s="27" t="n"/>
-      <c r="D3" s="27" t="n"/>
-      <c r="E3" s="27" t="n"/>
-      <c r="F3" s="27" t="n"/>
-      <c r="G3" s="27" t="n"/>
-      <c r="H3" s="27" t="n"/>
-      <c r="I3" s="27" t="n"/>
-      <c r="J3" s="27" t="n"/>
-      <c r="K3" s="27" t="n"/>
-      <c r="L3" s="27" t="n"/>
-      <c r="M3" s="28" t="n"/>
-      <c r="N3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="25">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="29" t="n"/>
-      <c r="C4" s="30" t="n"/>
-      <c r="D4" s="30" t="n"/>
-      <c r="E4" s="30" t="n"/>
-      <c r="F4" s="30" t="n"/>
-      <c r="G4" s="30" t="n"/>
-      <c r="H4" s="30" t="n"/>
-      <c r="I4" s="30" t="n"/>
-      <c r="J4" s="30" t="n"/>
-      <c r="K4" s="30" t="n"/>
-      <c r="L4" s="30" t="n"/>
-      <c r="M4" s="31" t="n"/>
-      <c r="N4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="25">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="32" t="inlineStr">
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">  Reference No.: SSR/EHS/F/25-00-0127  </t>
         </is>
       </c>
-      <c r="C5" s="33" t="n"/>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="34" t="n"/>
-      <c r="N5" s="14" t="n"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="25">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="15" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="15" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-      <c r="L6" s="15" t="n"/>
-      <c r="M6" s="15" t="n"/>
-      <c r="N6" s="14" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="25">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="17" t="inlineStr">
+    </row>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">  Date Range</t>
         </is>
       </c>
-      <c r="C7" s="17" t="n"/>
-      <c r="D7" s="35" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">  July 21-27, 2025  (Monday-Sunday)</t>
         </is>
       </c>
-      <c r="E7" s="30" t="n"/>
-      <c r="F7" s="30" t="n"/>
-      <c r="G7" s="30" t="n"/>
-      <c r="H7" s="30" t="n"/>
-      <c r="I7" s="30" t="n"/>
-      <c r="J7" s="30" t="n"/>
-      <c r="K7" s="30" t="n"/>
-      <c r="L7" s="19" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="25">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="17" t="inlineStr">
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">  Project Name</t>
         </is>
       </c>
-      <c r="C8" s="17" t="n"/>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">  Construction of the New Senate Building (Phase II)</t>
         </is>
       </c>
-      <c r="E8" s="33" t="n"/>
-      <c r="F8" s="33" t="n"/>
-      <c r="G8" s="33" t="n"/>
-      <c r="H8" s="33" t="n"/>
-      <c r="I8" s="33" t="n"/>
-      <c r="J8" s="33" t="n"/>
-      <c r="K8" s="33" t="n"/>
-      <c r="L8" s="21" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="25">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="17" t="inlineStr">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">  Project Site</t>
         </is>
       </c>
-      <c r="C9" s="17" t="n"/>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">  Navy village, Fort Bonifacio, Taguig City</t>
         </is>
       </c>
-      <c r="E9" s="33" t="n"/>
-      <c r="F9" s="33" t="n"/>
-      <c r="G9" s="33" t="n"/>
-      <c r="H9" s="33" t="n"/>
-      <c r="I9" s="33" t="n"/>
-      <c r="J9" s="33" t="n"/>
-      <c r="K9" s="33" t="n"/>
-      <c r="L9" s="21" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="25">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="17" t="inlineStr">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">  Project Code</t>
         </is>
       </c>
-      <c r="C10" s="17" t="n"/>
-      <c r="D10" s="20" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">  PE-01-NSBP2-23</t>
         </is>
       </c>
-      <c r="E10" s="33" t="n"/>
-      <c r="F10" s="33" t="n"/>
-      <c r="G10" s="33" t="n"/>
-      <c r="H10" s="33" t="n"/>
-      <c r="I10" s="33" t="n"/>
-      <c r="J10" s="33" t="n"/>
-      <c r="K10" s="33" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="25">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="17" t="n"/>
-      <c r="C11" s="17" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="22" t="n"/>
-      <c r="F11" s="22" t="n"/>
-      <c r="G11" s="22" t="n"/>
-      <c r="H11" s="22" t="n"/>
-      <c r="I11" s="22" t="n"/>
-      <c r="J11" s="22" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="19" t="n"/>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="25">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="23" t="n"/>
-      <c r="F12" s="23" t="n"/>
-      <c r="G12" s="24" t="n"/>
-      <c r="H12" s="24" t="n"/>
-      <c r="I12" s="24" t="n"/>
-      <c r="J12" s="24" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="36" t="inlineStr">
+    </row>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  I. MANPOWER</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="37" t="inlineStr">
-        <is>
-          <t>REGULAR (8-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="37" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>REGULAR (8am-5pm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="38" t="inlineStr">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="38" t="inlineStr">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="38" t="inlineStr">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="38" t="inlineStr">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="25">
-      <c r="C21" s="38" t="inlineStr">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="25">
-      <c r="C22" s="38" t="inlineStr">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="25">
-      <c r="C23" s="38" t="inlineStr">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="25">
-      <c r="C24" s="38" t="inlineStr">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="25">
-      <c r="C25" s="38" t="inlineStr">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="25">
-      <c r="C26" s="38" t="inlineStr">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="25">
-      <c r="C27" s="38" t="inlineStr">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="25">
-      <c r="C28" s="38" t="inlineStr">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="25">
-      <c r="C29" s="38" t="inlineStr">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="25">
-      <c r="C30" s="38" t="inlineStr">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="C30" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="25">
-      <c r="C31" s="38" t="inlineStr">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="25">
-      <c r="C32" s="38" t="inlineStr">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="25">
-      <c r="C33" s="38" t="inlineStr">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="25">
-      <c r="C34" s="38" t="inlineStr">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="25">
-      <c r="C35" s="38" t="inlineStr">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="25">
-      <c r="C36" s="38" t="inlineStr">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="25">
-      <c r="C37" s="38" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="25">
-      <c r="C38" s="38" t="inlineStr">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="25">
-      <c r="C39" s="38" t="inlineStr">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1" s="25">
-      <c r="C40" s="37" t="inlineStr">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="C40" s="10" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1" s="25"/>
-    <row r="42" ht="15.75" customHeight="1" s="25">
-      <c r="C42" s="37" t="inlineStr">
-        <is>
-          <t>OVERTIME (6-10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" s="25">
-      <c r="C43" s="37" t="inlineStr">
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>OVERTIME (6pm-10pm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="C43" s="10" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="25">
-      <c r="C44" s="38" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="25">
-      <c r="C45" s="38" t="inlineStr">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="25">
-      <c r="C46" s="38" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="25">
-      <c r="C47" s="38" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="25">
-      <c r="C48" s="38" t="inlineStr">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="25">
-      <c r="C49" s="38" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="25">
-      <c r="C50" s="38" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="25">
-      <c r="C51" s="38" t="inlineStr">
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="25">
-      <c r="C52" s="38" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1" s="25">
-      <c r="C53" s="38" t="inlineStr">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1" s="25">
-      <c r="C54" s="38" t="inlineStr">
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="25">
-      <c r="C55" s="38" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="25">
-      <c r="C56" s="38" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="25">
-      <c r="C57" s="38" t="inlineStr">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="25">
-      <c r="C58" s="38" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="25">
-      <c r="C59" s="38" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1" s="25">
-      <c r="C60" s="38" t="inlineStr">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1" s="25">
-      <c r="C61" s="38" t="inlineStr">
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="25">
-      <c r="C62" s="38" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="25">
-      <c r="C63" s="38" t="inlineStr">
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="C63" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1" s="25">
-      <c r="C64" s="38" t="inlineStr">
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="C64" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1" s="25">
-      <c r="C65" s="38" t="inlineStr">
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="C65" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1" s="25">
-      <c r="C66" s="38" t="inlineStr">
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="C66" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1" s="25">
-      <c r="C67" s="37" t="inlineStr">
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="C67" s="10" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1" s="25"/>
-    <row r="69" ht="15.75" customHeight="1" s="25"/>
-    <row r="70" ht="15.75" customHeight="1" s="25">
-      <c r="B70" s="36" t="inlineStr">
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  II. MANHOURS</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1" s="25"/>
-    <row r="72" ht="15.75" customHeight="1" s="25">
-      <c r="C72" s="37" t="inlineStr">
-        <is>
-          <t>REGULAR (8-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1" s="25">
-      <c r="C73" s="37" t="inlineStr">
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>REGULAR (8am-5pm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="C73" s="10" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1" s="25">
-      <c r="C74" s="38" t="inlineStr">
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="C74" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1" s="25">
-      <c r="C75" s="38" t="inlineStr">
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="C75" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1" s="25">
-      <c r="C76" s="38" t="inlineStr">
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="C76" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1" s="25">
-      <c r="C77" s="38" t="inlineStr">
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="C77" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1" s="25">
-      <c r="C78" s="38" t="inlineStr">
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="C78" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1" s="25">
-      <c r="C79" s="38" t="inlineStr">
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="C79" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1" s="25">
-      <c r="C80" s="38" t="inlineStr">
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="C80" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1" s="25">
-      <c r="C81" s="38" t="inlineStr">
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="C81" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1" s="25">
-      <c r="C82" s="38" t="inlineStr">
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="C82" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1" s="25">
-      <c r="C83" s="38" t="inlineStr">
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="C83" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1" s="25">
-      <c r="C84" s="38" t="inlineStr">
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="C84" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1" s="25">
-      <c r="C85" s="38" t="inlineStr">
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="C85" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1" s="25">
-      <c r="C86" s="38" t="inlineStr">
+    <row r="86">
+      <c r="C86" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1" s="25">
-      <c r="C87" s="38" t="inlineStr">
+    <row r="87">
+      <c r="C87" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1" s="25">
-      <c r="C88" s="38" t="inlineStr">
+    <row r="88">
+      <c r="C88" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1" s="25">
-      <c r="C89" s="38" t="inlineStr">
+    <row r="89">
+      <c r="C89" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1" s="25">
-      <c r="C90" s="38" t="inlineStr">
+    <row r="90">
+      <c r="C90" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1" s="25">
-      <c r="C91" s="38" t="inlineStr">
+    <row r="91">
+      <c r="C91" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1" s="25">
-      <c r="C92" s="38" t="inlineStr">
+    <row r="92">
+      <c r="C92" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1" s="25">
-      <c r="C93" s="38" t="inlineStr">
+    <row r="93">
+      <c r="C93" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1" s="25">
-      <c r="C94" s="38" t="inlineStr">
+    <row r="94">
+      <c r="C94" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1" s="25">
-      <c r="C95" s="38" t="inlineStr">
+    <row r="95">
+      <c r="C95" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1" s="25">
-      <c r="C96" s="38" t="inlineStr">
+    <row r="96">
+      <c r="C96" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1" s="25">
-      <c r="C97" s="37" t="inlineStr">
+    <row r="97">
+      <c r="C97" s="10" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1" s="25"/>
-    <row r="99" ht="15.75" customHeight="1" s="25">
-      <c r="C99" s="37" t="inlineStr">
-        <is>
-          <t>OVERTIME (6-10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1" s="25">
-      <c r="C100" s="37" t="inlineStr">
+    <row r="99">
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>OVERTIME (6pm-10pm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" s="10" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="C101" s="38" t="inlineStr">
+      <c r="C101" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="C102" s="38" t="inlineStr">
+      <c r="C102" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="C103" s="38" t="inlineStr">
+      <c r="C103" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="C104" s="38" t="inlineStr">
+      <c r="C104" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="C105" s="38" t="inlineStr">
+      <c r="C105" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="C106" s="38" t="inlineStr">
+      <c r="C106" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="C107" s="38" t="inlineStr">
+      <c r="C107" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="C108" s="38" t="inlineStr">
+      <c r="C108" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="C109" s="38" t="inlineStr">
+      <c r="C109" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="C110" s="38" t="inlineStr">
+      <c r="C110" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="C111" s="38" t="inlineStr">
+      <c r="C111" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="C112" s="38" t="inlineStr">
+      <c r="C112" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="C113" s="38" t="inlineStr">
+      <c r="C113" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="C114" s="38" t="inlineStr">
+      <c r="C114" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="C115" s="38" t="inlineStr">
+      <c r="C115" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="C116" s="38" t="inlineStr">
+      <c r="C116" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="C117" s="38" t="inlineStr">
+      <c r="C117" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="C118" s="38" t="inlineStr">
+      <c r="C118" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="C119" s="38" t="inlineStr">
+      <c r="C119" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="C120" s="38" t="inlineStr">
+      <c r="C120" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="C121" s="38" t="inlineStr">
+      <c r="C121" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="C122" s="38" t="inlineStr">
+      <c r="C122" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="C123" s="38" t="inlineStr">
+      <c r="C123" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="C124" s="37" t="inlineStr">
+      <c r="C124" s="10" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="116">
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C107:D107"/>
@@ -1744,6 +1439,7 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C86:D86"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="C108:D108"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C20:D20"/>
@@ -1767,6 +1463,7 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C61:D61"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C106:D106"/>
@@ -1790,7 +1487,9 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="C115:D115"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B70:N70"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C39:D39"/>
@@ -1803,17 +1502,12 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C87:D87"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:M5">
-    <cfRule type="expression" priority="1" dxfId="0" stopIfTrue="1">
-      <formula>OR(#REF!="",NOT(ISNUMBER(#REF!)),#REF!&lt;=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023623" bottom="0.5905511811023623" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter>
     <oddHeader/>
-    <oddFooter>&amp;L01+024  Effectivity Date: April 3, 2013&amp;R01+024Form No.: HCCF-40-004-012 Revision 1  </oddFooter>
+    <oddFooter>&amp;L01+024  Effectivity Date: April 3, 2013&amp;R01+024Form No.: HCCF-40-004-012 Revision 1</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>

--- a/test/NSB-P2 SSR as of July 21-27, 2025.xlsx
+++ b/test/NSB-P2 SSR as of July 21-27, 2025.xlsx
@@ -306,10 +306,10 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3190875" cy="742950"/>
+    <ext cx="2781300" cy="647700"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -319,9 +319,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>

--- a/test/NSB-P2 SSR as of July 21-27, 2025.xlsx
+++ b/test/NSB-P2 SSR as of July 21-27, 2025.xlsx
@@ -2,108 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="As of July 21-27, 2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="DATE_RANGE">#REF!</definedName>
-    <definedName name="FIRST_DAY">#REF!</definedName>
-    <definedName name="FIRST_DAY_FALLBACK">#REF!</definedName>
-    <definedName name="FULL_DATE_FMT">#REF!</definedName>
-    <definedName name="LAST_SUN">#REF!</definedName>
-    <definedName name="MONTH_FMT">#REF!</definedName>
-    <definedName name="NO_MONTH_FMT">#REF!</definedName>
-    <definedName name="NO_YR_FMT">#REF!</definedName>
-    <definedName name="PADDING">#REF!</definedName>
-    <definedName name="PADDING_FALLBACK">#REF!</definedName>
-    <definedName name="PADDING_FORMAT">#REF!</definedName>
-    <definedName name="REF_ERRMSG">#REF!</definedName>
-    <definedName name="REF_FALLBACK">#REF!</definedName>
-    <definedName name="REF_INC">#REF!</definedName>
-    <definedName name="REF_NUM">#REF!</definedName>
-    <definedName name="REF_NUM_FULL">#REF!</definedName>
-    <definedName name="REF_PRETEXT">#REF!</definedName>
-    <definedName name="REF_RESOLVED">#REF!</definedName>
-    <definedName name="REF_TICKER">#REF!</definedName>
-    <definedName name="REF_TICKER_INC">#REF!</definedName>
-    <definedName name="TICKER_PADDING">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FALLBACK">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FORMAT">#REF!</definedName>
-    <definedName name="WEEK_CODE">#REF!</definedName>
-    <definedName name="WEEK_END">#REF!</definedName>
-    <definedName name="WEEK_FULL_FMT">#REF!</definedName>
-    <definedName name="WEEK_NUM">#REF!</definedName>
-    <definedName name="WEEK_START">#REF!</definedName>
-    <definedName name="YEAR_FMT">#REF!</definedName>
-    <definedName name="YEAR_SPACER">#REF!</definedName>
-    <definedName name="CUR_YEAR" localSheetId="0">#REF!</definedName>
-    <definedName name="DATE_RANGE" localSheetId="0">#REF!</definedName>
-    <definedName name="DATE_RANGE_TABLE" localSheetId="0">#REF!</definedName>
-    <definedName name="DAY_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="END_YEAR" localSheetId="0">#REF!</definedName>
-    <definedName name="FIRST_DAY" localSheetId="0">#REF!</definedName>
-    <definedName name="FIRST_DAY_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="FULL_DATE_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="LAST_SUN" localSheetId="0">#REF!</definedName>
-    <definedName name="MONTH_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="NO_MONTH_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="NO_YR_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING_FORMAT" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_ERRMSG" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_INC" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_NUM_FULL" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_PRETEXT" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_RESOLVED" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_TICKER" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_TICKER_INC" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FORMAT" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_CODE" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_END" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_FULL_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_NUM" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_START" localSheetId="0">#REF!</definedName>
-    <definedName name="YEAR_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="YEAR_SPACER" localSheetId="0">#REF!</definedName>
-    <definedName name="YEARS" localSheetId="0">#REF!</definedName>
-  </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="36"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="24"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -186,46 +106,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -306,7 +217,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2781300" cy="647700"/>
+    <ext cx="2533650" cy="590550"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -331,20 +242,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -368,19 +279,77 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,131 +361,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -529,47 +527,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFDDD9C3"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="B3:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.140625" customWidth="1" min="1" max="1"/>
-    <col width="8.85546875" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" customWidth="1" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="11.140625" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="11"/>
-    <col width="5.85546875" customWidth="1" min="12" max="12"/>
-    <col width="2.7109375" customWidth="1" min="13" max="13"/>
-    <col width="1.140625" customWidth="1" min="14" max="14"/>
+    <col width="0.67" customWidth="1" min="1" max="1"/>
+    <col width="8.140000000000001" customWidth="1" min="2" max="2"/>
+    <col width="7.71" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="10.43" customWidth="1" min="5" max="5"/>
+    <col width="12.29" customWidth="1" min="6" max="6"/>
+    <col width="12.29" customWidth="1" min="7" max="7"/>
+    <col width="12.29" customWidth="1" min="8" max="8"/>
+    <col width="12.29" customWidth="1" min="9" max="9"/>
+    <col width="12.29" customWidth="1" min="10" max="10"/>
+    <col width="12.29" customWidth="1" min="11" max="11"/>
+    <col width="5.14" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="13" max="13"/>
+    <col width="0.67" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
     <row r="3">
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>SAFETY STATISTICS REPORT</t>
         </is>
@@ -577,805 +563,797 @@
     </row>
     <row r="4"/>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">  Reference No.: SSR/EHS/F/25-00-0127  </t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="6" t="inlineStr">
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Date Range</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  July 21-27, 2025  (Monday-Sunday)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="6" t="inlineStr">
+    <row r="8">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Project Name</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Construction of the New Senate Building (Phase II)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="6" t="inlineStr">
+    <row r="9">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Project Site</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Navy village, Fort Bonifacio, Taguig City</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="6" t="inlineStr">
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Project Code</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  PE-01-NSBP2-23</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="8" t="inlineStr">
+    <row r="13">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">  I. MANPOWER</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="9" t="inlineStr">
+    <row r="15">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>REGULAR (8am-5pm)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="10" t="inlineStr">
+    <row r="16">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="11" t="inlineStr">
+    <row r="17">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="11" t="inlineStr">
+    <row r="18">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="11" t="inlineStr">
+    <row r="19">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="11" t="inlineStr">
+    <row r="20">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="11" t="inlineStr">
+    <row r="21">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="11" t="inlineStr">
+    <row r="22">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="11" t="inlineStr">
+    <row r="23">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="11" t="inlineStr">
+    <row r="24">
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="11" t="inlineStr">
+    <row r="25">
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="11" t="inlineStr">
+    <row r="26">
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="11" t="inlineStr">
+    <row r="27">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="11" t="inlineStr">
+    <row r="28">
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="11" t="inlineStr">
+    <row r="29">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="11" t="inlineStr">
+    <row r="30">
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="11" t="inlineStr">
+    <row r="31">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="11" t="inlineStr">
+    <row r="32">
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="11" t="inlineStr">
+    <row r="33">
+      <c r="C33" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="11" t="inlineStr">
+    <row r="34">
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="11" t="inlineStr">
+    <row r="35">
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="11" t="inlineStr">
+    <row r="36">
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="11" t="inlineStr">
+    <row r="37">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="11" t="inlineStr">
+    <row r="38">
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="11" t="inlineStr">
+    <row r="39">
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="10" t="inlineStr">
+    <row r="40">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="9" t="inlineStr">
+    <row r="42">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>OVERTIME (6pm-10pm)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="10" t="inlineStr">
+    <row r="43">
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="11" t="inlineStr">
+    <row r="44">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="11" t="inlineStr">
+    <row r="45">
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="11" t="inlineStr">
+    <row r="46">
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="11" t="inlineStr">
+    <row r="47">
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="11" t="inlineStr">
+    <row r="48">
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="11" t="inlineStr">
+    <row r="49">
+      <c r="C49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="11" t="inlineStr">
+    <row r="50">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="11" t="inlineStr">
+    <row r="51">
+      <c r="C51" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="11" t="inlineStr">
+    <row r="52">
+      <c r="C52" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="11" t="inlineStr">
+    <row r="53">
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="11" t="inlineStr">
+    <row r="54">
+      <c r="C54" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="11" t="inlineStr">
+    <row r="55">
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="11" t="inlineStr">
+    <row r="56">
+      <c r="C56" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="11" t="inlineStr">
+    <row r="57">
+      <c r="C57" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="11" t="inlineStr">
+    <row r="58">
+      <c r="C58" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="11" t="inlineStr">
+    <row r="59">
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="11" t="inlineStr">
+    <row r="60">
+      <c r="C60" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="11" t="inlineStr">
+    <row r="61">
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="11" t="inlineStr">
+    <row r="62">
+      <c r="C62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="11" t="inlineStr">
+    <row r="63">
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="11" t="inlineStr">
+    <row r="64">
+      <c r="C64" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="11" t="inlineStr">
+    <row r="65">
+      <c r="C65" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="11" t="inlineStr">
+    <row r="66">
+      <c r="C66" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="10" t="inlineStr">
+    <row r="67">
+      <c r="C67" s="7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="8" t="inlineStr">
+    <row r="70">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">  II. MANHOURS</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="9" t="inlineStr">
+    <row r="72">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>REGULAR (8am-5pm)</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="10" t="inlineStr">
+    <row r="73">
+      <c r="C73" s="7" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="11" t="inlineStr">
+    <row r="74">
+      <c r="C74" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="11" t="inlineStr">
+    <row r="75">
+      <c r="C75" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="11" t="inlineStr">
+    <row r="76">
+      <c r="C76" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="11" t="inlineStr">
+    <row r="77">
+      <c r="C77" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="11" t="inlineStr">
+    <row r="78">
+      <c r="C78" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="11" t="inlineStr">
+    <row r="79">
+      <c r="C79" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="11" t="inlineStr">
+    <row r="80">
+      <c r="C80" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="11" t="inlineStr">
+    <row r="81">
+      <c r="C81" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="11" t="inlineStr">
+    <row r="82">
+      <c r="C82" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="11" t="inlineStr">
+    <row r="83">
+      <c r="C83" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="11" t="inlineStr">
+    <row r="84">
+      <c r="C84" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="11" t="inlineStr">
+    <row r="85">
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="C86" s="11" t="inlineStr">
+      <c r="C86" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="C87" s="11" t="inlineStr">
+      <c r="C87" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="C88" s="11" t="inlineStr">
+      <c r="C88" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="C89" s="11" t="inlineStr">
+      <c r="C89" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="C90" s="11" t="inlineStr">
+      <c r="C90" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="C91" s="11" t="inlineStr">
+      <c r="C91" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="C92" s="11" t="inlineStr">
+      <c r="C92" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="C93" s="11" t="inlineStr">
+      <c r="C93" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="C94" s="11" t="inlineStr">
+      <c r="C94" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="C95" s="11" t="inlineStr">
+      <c r="C95" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="C96" s="11" t="inlineStr">
+      <c r="C96" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="C97" s="10" t="inlineStr">
+      <c r="C97" s="7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="C99" s="9" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>OVERTIME (6pm-10pm)</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="C100" s="10" t="inlineStr">
+      <c r="C100" s="7" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="C101" s="11" t="inlineStr">
+      <c r="C101" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  STAFF</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="C102" s="11" t="inlineStr">
+      <c r="C102" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SECURITY GUARD</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="C103" s="11" t="inlineStr">
+      <c r="C103" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ELECTRICIAN</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="C104" s="11" t="inlineStr">
+      <c r="C104" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ADMIN</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="C105" s="11" t="inlineStr">
+      <c r="C105" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ACTECH</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="C106" s="11" t="inlineStr">
+      <c r="C106" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  WELTANCHANG</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="C107" s="11" t="inlineStr">
+      <c r="C107" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  TRIGOLD</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="C108" s="11" t="inlineStr">
+      <c r="C108" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  REBTRADE</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="C109" s="11" t="inlineStr">
+      <c r="C109" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  NEWCORE</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="C110" s="11" t="inlineStr">
+      <c r="C110" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  CYPRESS</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="C111" s="11" t="inlineStr">
+      <c r="C111" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  AGCHEM</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="C112" s="11" t="inlineStr">
+      <c r="C112" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SPECSERV</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="C113" s="11" t="inlineStr">
+      <c r="C113" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SISCOR</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="C114" s="11" t="inlineStr">
+      <c r="C114" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  ARLO</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="C115" s="11" t="inlineStr">
+      <c r="C115" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MULTILINE</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="C116" s="11" t="inlineStr">
+      <c r="C116" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  LITAN</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="C117" s="11" t="inlineStr">
+      <c r="C117" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  PRIMEPOWER</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="C118" s="11" t="inlineStr">
+      <c r="C118" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  MSJR</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="C119" s="11" t="inlineStr">
+      <c r="C119" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  GERON</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="C120" s="11" t="inlineStr">
+      <c r="C120" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  SOUTH PACIFIC</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="C121" s="11" t="inlineStr">
+      <c r="C121" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  EMD</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="C122" s="11" t="inlineStr">
+      <c r="C122" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  KONE</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="C123" s="11" t="inlineStr">
+      <c r="C123" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  BASIC MAC</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="C124" s="10" t="inlineStr">
+      <c r="C124" s="7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -1500,17 +1478,7 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C87:D87"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023623" bottom="0.5905511811023623" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;L01+024  Effectivity Date: April 3, 2013&amp;R01+024Form No.: HCCF-40-004-012 Revision 1</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>